--- a/kicad/ELSONIC/POWER_BD_SV3/POWER_BD_SV3.xlsx
+++ b/kicad/ELSONIC/POWER_BD_SV3/POWER_BD_SV3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AllData\06_Embedded_Proj\KiCAD\ELSONIC\POWER_BD_NV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AllData\06_Embedded_Proj\KiCAD\ELSONIC\POWER_BD_SV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5180E3-1447-41C8-891B-E0643E06CB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD603F-04D7-4E94-99C6-1E98EC532A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="375" windowWidth="24960" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30810" yWindow="345" windowWidth="24960" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="POWER_BD_NV2" sheetId="1" r:id="rId1"/>
+    <sheet name="POWER_BD_SV2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
